--- a/data/trans_camb/P1423-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,89</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>5,52</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5,36</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>3,18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,23</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>2,68; 8,14</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5,0; 10,88</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>2,69; 8,48</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 10,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>3,55; 7,22</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>1,36; 5,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 9,41</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>101,25%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>69,7%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>48,81%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>61,82%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>36,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83,49%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>41,33; 181,94</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>38,54; 106,14</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>21,53; 82,6</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42,57; 108,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>36,57; 93,45</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>14,83; 68,38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54,55; 121,44</t>
         </is>
       </c>
     </row>
@@ -767,22 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>3,23</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,47</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>2,12</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -805,22 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>1,26; 4,12</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,21; 3,66</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>1,41; 5,03</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 6,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0,41; 2,42</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>1,12; 3,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 4,85</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>152,2%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>34,1%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>58,38%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>76,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>40,38%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>58,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>97,92%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>54,98; 276,36</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,1; 78,54</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>22,32; 107,39</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27,35; 131,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>10,23; 75,17</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>26,33; 97,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53,44; 148,73</t>
         </is>
       </c>
     </row>
@@ -923,22 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,49</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,17</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>-0,17</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>-0,92</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>0,33; 4,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-3,39; 2,08</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-3,81; 1,3</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 5,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>-1,71; 1,49</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>-2,45; 0,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 4,37</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>92,04%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-11,26%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-27,12%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66,27%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-5,02%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>-26,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79,5%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>4,83; 255,72</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-58,8; 61,8</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-64,93; 49,37</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 177,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>-40,06; 59,08</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>-56,79; 25,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 161,52</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,78</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>2,55</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>2,44</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>1,41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>1,23; 3,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>2,37; 5,13</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>1,16; 4,07</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 5,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>1,54; 3,37</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>0,54; 2,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 4,24</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>84,8%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>49,7%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>33,5%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>48,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>45,26%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>26,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>59,36%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>36,86; 139,06</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>29,03; 72,97</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>14,72; 58,77</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21,4; 74,57</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>26,54; 67,14</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>10,14; 44,22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>35,66; 84,3</t>
         </is>
       </c>
     </row>
@@ -1222,11 +1493,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P1423-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,97</t>
+          <t>-0,5; 3,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,25</t>
+          <t>-2,19; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,14</t>
+          <t>2,39; 8,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,88</t>
+          <t>5,16; 10,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 8,48</t>
+          <t>2,51; 8,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,97</t>
+          <t>5,32; 11,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,22</t>
+          <t>3,54; 7,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,41</t>
+          <t>1,19; 5,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,41</t>
+          <t>5,2; 9,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 91,59</t>
+          <t>-8,38; 86,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 51,38</t>
+          <t>-35,14; 47,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,33; 181,94</t>
+          <t>37,22; 184,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 106,14</t>
+          <t>40,35; 105,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,53; 82,6</t>
+          <t>21,2; 83,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,57; 108,18</t>
+          <t>41,6; 110,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,57; 93,45</t>
+          <t>37,15; 92,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,83; 68,38</t>
+          <t>12,0; 68,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,55; 121,44</t>
+          <t>55,91; 120,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,32</t>
+          <t>0,08; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,96</t>
+          <t>-0,02; 2,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,12</t>
+          <t>1,29; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,66</t>
+          <t>0,05; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,03</t>
+          <t>1,51; 5,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,21</t>
+          <t>1,29; 6,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,42</t>
+          <t>0,49; 2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,18</t>
+          <t>1,09; 3,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,85</t>
+          <t>1,9; 4,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 171,89</t>
+          <t>1,17; 161,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 142,48</t>
+          <t>-3,31; 137,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,98; 276,36</t>
+          <t>61,73; 303,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 78,54</t>
+          <t>0,86; 71,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 107,39</t>
+          <t>22,25; 107,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 131,92</t>
+          <t>23,31; 133,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 75,17</t>
+          <t>11,5; 79,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 97,91</t>
+          <t>26,23; 100,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,44; 148,73</t>
+          <t>51,8; 151,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,61</t>
+          <t>-1,74; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,0</t>
+          <t>-2,6; 1,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,77</t>
+          <t>0,27; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,08</t>
+          <t>-3,05; 2,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,3</t>
+          <t>-3,7; 1,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,28</t>
+          <t>-0,06; 5,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,49</t>
+          <t>-1,78; 1,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,57</t>
+          <t>-2,55; 0,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,37</t>
+          <t>1,07; 4,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 139,77</t>
+          <t>-53,11; 142,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,4; 62,37</t>
+          <t>-71,61; 71,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 255,72</t>
+          <t>2,82; 262,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,8; 61,8</t>
+          <t>-55,94; 76,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,93; 49,37</t>
+          <t>-63,34; 41,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 177,23</t>
+          <t>-5,36; 169,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 59,08</t>
+          <t>-42,14; 62,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 25,02</t>
+          <t>-60,69; 21,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,69; 161,52</t>
+          <t>22,56; 170,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,89</t>
+          <t>0,09; 1,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,15</t>
+          <t>-0,62; 1,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,72</t>
+          <t>1,33; 3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,13</t>
+          <t>2,31; 5,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,07</t>
+          <t>1,27; 4,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,12</t>
+          <t>1,52; 5,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,37</t>
+          <t>1,57; 3,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,22</t>
+          <t>0,5; 2,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,24</t>
+          <t>1,9; 4,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 71,87</t>
+          <t>2,25; 74,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 41,97</t>
+          <t>-18,03; 41,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,86; 139,06</t>
+          <t>39,75; 141,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,03; 72,97</t>
+          <t>27,4; 74,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,72; 58,77</t>
+          <t>15,81; 57,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,4; 74,57</t>
+          <t>19,72; 73,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,54; 67,14</t>
+          <t>26,41; 66,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 44,22</t>
+          <t>7,97; 44,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35,66; 84,3</t>
+          <t>34,69; 83,1</t>
         </is>
       </c>
     </row>
